--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses-lectures\Courses_Only\Semester 7\Software Engineering LAB\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B738F4-D106-468C-8D6A-EE98AA3EDDCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61BF3F-2488-40BB-B3FC-AB83742EE499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Classes</t>
   </si>
@@ -66,9 +66,6 @@
     <t>status: STRING</t>
   </si>
   <si>
-    <t>criminalRecord: FILE</t>
-  </si>
-  <si>
     <t>duration: TIME</t>
   </si>
   <si>
@@ -108,18 +105,12 @@
     <t>FamilyMember</t>
   </si>
   <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>isPaid: BOOL</t>
   </si>
   <si>
     <t>Extension</t>
   </si>
   <si>
-    <t>period: INT</t>
-  </si>
-  <si>
     <t>free: CURRENCY</t>
   </si>
   <si>
@@ -139,6 +130,42 @@
   </si>
   <si>
     <t>issuedBill: BOOL</t>
+  </si>
+  <si>
+    <t>period: TIME</t>
+  </si>
+  <si>
+    <t>expiryDate: DATE</t>
+  </si>
+  <si>
+    <t>incomeInfo: FILE</t>
+  </si>
+  <si>
+    <t>issueDate: DATE</t>
+  </si>
+  <si>
+    <t>number: STRING</t>
+  </si>
+  <si>
+    <t>holderName: STRING</t>
+  </si>
+  <si>
+    <t>CVV: INT</t>
+  </si>
+  <si>
+    <t>type: STRING</t>
+  </si>
+  <si>
+    <t>bankName: STRING</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>isOverstay: BOOL</t>
+  </si>
+  <si>
+    <t>inCountry: BOOL</t>
   </si>
 </sst>
 </file>
@@ -263,6 +290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,12 +303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:G21"/>
+  <dimension ref="B8:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="B14" sqref="B14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,29 +597,30 @@
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -603,45 +631,51 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -650,32 +684,38 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>23</v>
@@ -684,50 +724,68 @@
         <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
